--- a/test/resources/items.xlsx
+++ b/test/resources/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbrunetta/Documents/Projects/ifoody-api/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64662CF-E765-F443-B1F0-C4514B3B090C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92238B0E-C78B-FA4E-8616-DB52C426D0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <si>
+    <t>Code</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -53,13 +56,22 @@
   </si>
   <si>
     <t>Pão cervejinha , hambúrguer de gado 180g, queijo muçarela, alface, bacon, tomate e molho chimichurri. Um acompanhamento à escolha: anel de cebola ou batata palito.</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +85,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,11 +128,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,22 +449,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="138.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="138.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -436,50 +474,62 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="E4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test/resources/items.xlsx
+++ b/test/resources/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbrunetta/Documents/Projects/ifoody-api/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92238B0E-C78B-FA4E-8616-DB52C426D0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB9A893-EA48-7E40-B539-5D42431E7DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="174">
   <si>
     <t>Code</t>
   </si>
@@ -37,27 +37,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>El viajeiro + acompanhamento</t>
-  </si>
-  <si>
-    <t>Pão brioche, hambúrguer de gado 180g, creme de queijos, farofa de bacon, rúcula e molho barbecue. Um acompanhamento à escolha: anel de cebola ou batata palito.</t>
-  </si>
-  <si>
-    <t>Hambúrguer</t>
-  </si>
-  <si>
-    <t>Americano + acompanhamento</t>
-  </si>
-  <si>
-    <t>Pão de hamburguér, hambúrguer de gado 180g, queijo cheddar, bacon, cebola caramelizada e maionese da casa. Um acompanhamento à escolha: anel de cebola ou batata palito.</t>
-  </si>
-  <si>
-    <t>Argentino + acompanhamento</t>
-  </si>
-  <si>
-    <t>Pão cervejinha , hambúrguer de gado 180g, queijo muçarela, alface, bacon, tomate e molho chimichurri. Um acompanhamento à escolha: anel de cebola ou batata palito.</t>
-  </si>
-  <si>
     <t>0001</t>
   </si>
   <si>
@@ -65,13 +44,511 @@
   </si>
   <si>
     <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0039</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>0046</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0056</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>Xis Casa</t>
+  </si>
+  <si>
+    <t>Pão, hambúrguer, queijo, presunto, ovo, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis</t>
+  </si>
+  <si>
+    <t>Xis Coração</t>
+  </si>
+  <si>
+    <t>Pão, coração, queijo, presunto, ovo, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Frango</t>
+  </si>
+  <si>
+    <t>Pão, peito de frango, queijo, presunto, ovo, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Frango a Portuguesa</t>
+  </si>
+  <si>
+    <t>Pão, peito de frango, queijo, presunto, ovo, pimentão, cebola, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Franco com Bacon</t>
+  </si>
+  <si>
+    <t>Pão, peito de frango, queijo, presunto, ovo, bacon, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Picanha</t>
+  </si>
+  <si>
+    <t>Pão, picanha, queijo, presunto, ovo, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Picanha Alho e Óleo</t>
+  </si>
+  <si>
+    <t>Pão, picanha, queijo, presunto, ovo, alho e óleo, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Vegetariano</t>
+  </si>
+  <si>
+    <t>Pão, 4 fatias de queijo, ovo, milho, ervilha, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Salada</t>
+  </si>
+  <si>
+    <t>Pão, hambúrguer, queijo, presunto, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Buratti</t>
+  </si>
+  <si>
+    <t>Pão, 2 hambúrgueres, 2 fatias de queijo, milho, ervilha, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Portuguesa</t>
+  </si>
+  <si>
+    <t>Pão, hambúrguer, queijo, presunto, ovo, pimentão, cebola, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Bacon</t>
+  </si>
+  <si>
+    <t>Pão, hambúrguer, queijo, presunto, ovo, bacon, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Bacon Portuguesa</t>
+  </si>
+  <si>
+    <t>Pão, hambúrguer, queijo, presunto, ovo, bacon, pimentão, cebola, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Calabresa</t>
+  </si>
+  <si>
+    <t>Pão, linguiça calabresa, queijo, presunto, ovo, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Mignon</t>
+  </si>
+  <si>
+    <t>Pão, mignon, queijo, presunto, ovo, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Mignon Salada</t>
+  </si>
+  <si>
+    <t>Pão, mignon, queijo, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Mignon Acebolado</t>
+  </si>
+  <si>
+    <t>Pão, mignon, queijo, presunto, ovo, cebola, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Mignon Alho e Óleo</t>
+  </si>
+  <si>
+    <t>Pão, mignon, queijo, presunto, ovo, alho e óleo, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Xis Mignon com Bacon</t>
+  </si>
+  <si>
+    <t>Pão, mignon, queijo, presunto, ovo, bacon, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Torrada Simples</t>
+  </si>
+  <si>
+    <t>Pão fatiado, 2 presuntos, 2 queijos.</t>
+  </si>
+  <si>
+    <t>Torrada Dupla</t>
+  </si>
+  <si>
+    <t>Pão fatiado, 2 presuntos, 2 queijos, ovo, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Torrada Americana</t>
+  </si>
+  <si>
+    <t>Pão de xis, 2 presuntos, 2 queijos, ovo, milho, ervilha, alface, tomate.</t>
+  </si>
+  <si>
+    <t>Torradas e cachorro-quente</t>
+  </si>
+  <si>
+    <t>Porção de Coração (200g)</t>
+  </si>
+  <si>
+    <t>Porção de Fritas (450g)</t>
+  </si>
+  <si>
+    <t>Porçãode Fritas (300g)</t>
+  </si>
+  <si>
+    <t>Porção de Agnoline Frito (200g)</t>
+  </si>
+  <si>
+    <t>Porção de Agnoline Frito (300g)</t>
+  </si>
+  <si>
+    <t>Porção de Coração (400g)</t>
+  </si>
+  <si>
+    <t>Porção de Filé Mignon (200g)</t>
+  </si>
+  <si>
+    <t>Porção de Filé Mignon (400g)</t>
+  </si>
+  <si>
+    <t>Porção de Polenta (300g)</t>
+  </si>
+  <si>
+    <t>Porção de Polenta (500g)</t>
+  </si>
+  <si>
+    <t>Porção de Queijo à Milanesa (250g)</t>
+  </si>
+  <si>
+    <t>Porção de Queijo à Milanesa (500g)</t>
+  </si>
+  <si>
+    <t>Porções</t>
+  </si>
+  <si>
+    <t>5 Star (40g)</t>
+  </si>
+  <si>
+    <t>Bis Xtra (45g)</t>
+  </si>
+  <si>
+    <t>Bis Xtra Óreo (45g)</t>
+  </si>
+  <si>
+    <t>Diamante Negro (344g)</t>
+  </si>
+  <si>
+    <t>Mentos Fruit (14 Un)</t>
+  </si>
+  <si>
+    <t>Ouro Branco (20g)</t>
+  </si>
+  <si>
+    <t>Sorvete Kibon Morango, Baunilha, Chocolate e Flocos (2L)</t>
+  </si>
+  <si>
+    <t>Sorvete Eski-bom Mini</t>
+  </si>
+  <si>
+    <t>Trident Hortelã/Menta (8g)</t>
+  </si>
+  <si>
+    <t>Trident Menta/Menta Verde (8g)</t>
+  </si>
+  <si>
+    <t>Trident Morango (8g)</t>
+  </si>
+  <si>
+    <t>Trident Tutti-Frutti (8g)</t>
+  </si>
+  <si>
+    <t>Trident Xfresh Intense (8g)</t>
+  </si>
+  <si>
+    <t>Doces e sorvetes</t>
+  </si>
+  <si>
+    <t>Budweiser Long Neck</t>
+  </si>
+  <si>
+    <t>Cerveja Polar Latão</t>
+  </si>
+  <si>
+    <t>Chopp Freuden Pilsen (1L)</t>
+  </si>
+  <si>
+    <t>Coca-Cola (2L)</t>
+  </si>
+  <si>
+    <t>Coca-Cola (600ml)</t>
+  </si>
+  <si>
+    <t>Coca-Cola Lata</t>
+  </si>
+  <si>
+    <t>Fanta Laranja (2L)</t>
+  </si>
+  <si>
+    <t>Fanta Laranja (600ml)</t>
+  </si>
+  <si>
+    <t>Fanta Laranja Lata</t>
+  </si>
+  <si>
+    <t>Fanta Uva (2L)</t>
+  </si>
+  <si>
+    <t>Fanta Uva Lata</t>
+  </si>
+  <si>
+    <t>Guaraná Antarctica (2L)</t>
+  </si>
+  <si>
+    <t>Guaraná Antarctica (600ml)</t>
+  </si>
+  <si>
+    <t>Guaraná Antarctica Lata</t>
+  </si>
+  <si>
+    <t>Heineken Long Neck</t>
+  </si>
+  <si>
+    <t>Malzebier Brahma Long Neck</t>
+  </si>
+  <si>
+    <t>Pepsi (600ml)</t>
+  </si>
+  <si>
+    <t>Sprite (2L)</t>
+  </si>
+  <si>
+    <t>Sprite (600ml)</t>
+  </si>
+  <si>
+    <t>Sprite Lata</t>
+  </si>
+  <si>
+    <t>Suco Pêssego Del Valle Lata</t>
+  </si>
+  <si>
+    <t>Suco Uva Del Valle Lata</t>
+  </si>
+  <si>
+    <t>Água com Gás (500ml)</t>
+  </si>
+  <si>
+    <t>Água sem Gás (500ml)</t>
+  </si>
+  <si>
+    <t>Bebida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +573,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,17 +616,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,23 +932,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="138.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -474,65 +957,1075 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="5">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="5">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="5">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="6">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="6">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="6">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="6">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="6">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="6">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="6">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="6">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="6">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="6">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="6">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="6">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="6">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="6">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="6">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="6">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="6">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="6">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="6">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="6">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="6">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="6">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="6">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="6">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="6">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="6">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="6">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="6">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="6">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="6">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="6">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E36" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="6">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="6">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="6">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="6">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="6">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="6">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="6">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="6">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="6">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D52" s="6">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="6">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="6">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E54" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="6">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>156</v>
+      </c>
+      <c r="D56" s="6">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="6">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="6">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="6">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="6">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="6">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="6">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" s="6">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" s="6">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="6">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="6">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="6">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>168</v>
+      </c>
+      <c r="D68" s="6">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
+      <c r="E70" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>